--- a/RGS/RGS/Content/CSV/map_example.xlsx
+++ b/RGS/RGS/Content/CSV/map_example.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Map_Chip" sheetId="1" r:id="rId1"/>
+    <sheet name="Block_Def" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,41 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>0, 2, 1, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 3, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 1, 1, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 2, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 1, 3, 4, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4, NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>block_ground</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>0, 1, 0, 2, NULL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0, 2, 1, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0, 3, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0, 1, 1, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1, 2, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0, 1, 3, 4, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3, 4, 2, NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4, NULL</t>
+    <t>block_ground</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3, 3, 4, NULL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,7 +395,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -394,34 +407,95 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
